--- a/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_3/out_of_sample/aryl_halide/ranking_test2/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-18.88310476724847</v>
+        <v>-18.88310476725575</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.19879390289453</v>
+        <v>15.19879390287589</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.41984739838587</v>
+        <v>30.41984739838973</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36.22808431281022</v>
+        <v>36.22808431284399</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-15.54841571436076</v>
+        <v>-15.54841571440555</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.53838152347999</v>
+        <v>18.53838152353161</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-12.43404169431027</v>
+        <v>-12.43404169427309</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.64838906817307</v>
+        <v>21.648389068209</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.8703291985321</v>
+        <v>36.8703291985603</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>42.67853431344487</v>
+        <v>42.67853431343669</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-9.098122488233106</v>
+        <v>-9.098122488244929</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24.98920687649776</v>
+        <v>24.98920687650753</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-8.786200630164547</v>
+        <v>-8.786200630138968</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.29629398039732</v>
+        <v>25.29629398047929</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.51841909578435</v>
+        <v>40.51841909576798</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>46.3266302674639</v>
+        <v>46.32663026748106</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-5.449746488292465</v>
+        <v>-5.449746488329414</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.63764671789501</v>
+        <v>28.63764671788728</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-15.57981051346984</v>
+        <v>-15.57981051344722</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.50238199234492</v>
+        <v>18.50238199240313</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.72358715386999</v>
+        <v>33.72358715387931</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>39.53189238050756</v>
+        <v>39.53189238051563</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-12.24459546515321</v>
+        <v>-12.24459546508534</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.84249562149058</v>
+        <v>21.84249562152605</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.75803676847046</v>
+        <v>33.75803676852844</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>39.56917244945329</v>
+        <v>39.56917244945977</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-6.774068104840911</v>
+        <v>-6.774068104885703</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>27.31393341744446</v>
+        <v>27.31393341743627</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>42.53563124427446</v>
+        <v>42.5356312442981</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>48.3467001340555</v>
+        <v>48.3467001340107</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>40.2097488364458</v>
+        <v>40.20974883643591</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.02085274223238</v>
+        <v>46.02085274226194</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.3234839231467852</v>
+        <v>-0.3234839231652025</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.76504971479405</v>
+        <v>33.76504971480223</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>48.98763428008205</v>
+        <v>48.98763428011979</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>54.79867138558792</v>
+        <v>54.79867138567251</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43.85837367162846</v>
+        <v>43.85837367162755</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49.66948363519522</v>
+        <v>49.66948363516293</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3.325071061138726</v>
+        <v>3.325071061113828</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>37.41366853219894</v>
+        <v>37.41366853224271</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>52.63643809181555</v>
+        <v>52.63643809182078</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>58.44748125394223</v>
+        <v>58.44748125401999</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>37.06230250805619</v>
+        <v>37.0623025080297</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>42.8735065255586</v>
+        <v>42.87350652561976</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-3.469870535390658</v>
+        <v>-3.469870535378266</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>30.61842483247188</v>
+        <v>30.61842483252259</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>45.84027431874985</v>
+        <v>45.84027431876258</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>51.6514115432026</v>
+        <v>51.65141154315371</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-17.02034111635009</v>
+        <v>-17.02034111636907</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>17.062429530121</v>
+        <v>17.0624295300778</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>32.28292431036472</v>
+        <v>32.28292431029378</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.09058435853014</v>
+        <v>38.09058435852548</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-13.68843451499889</v>
+        <v>-13.68843451494091</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>20.39923473255568</v>
+        <v>20.39923473247735</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-10.57150773118382</v>
+        <v>-10.57150773116222</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>23.51179501049559</v>
+        <v>23.51179501051559</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>38.73317640704671</v>
+        <v>38.73317640704273</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>44.5408046477619</v>
+        <v>44.54080464778771</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-7.238371007366698</v>
+        <v>-7.238371007296667</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26.84983037015014</v>
+        <v>26.84983037014434</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-6.923802539222027</v>
+        <v>-6.923802539209408</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.15956404713928</v>
+        <v>27.15956404715213</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>42.38113042514784</v>
+        <v>42.38113042516399</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>48.18876472080559</v>
+        <v>48.18876472085903</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-3.590130877168225</v>
+        <v>-3.590130877149125</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.49813433778969</v>
+        <v>30.4981343377383</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-13.71723868838761</v>
+        <v>-13.71723868834589</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>20.36582579449158</v>
+        <v>20.36582579459674</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35.58647223384607</v>
+        <v>35.58647223389359</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>41.39420058653947</v>
+        <v>41.394200586558</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-10.38480610348096</v>
+        <v>-10.38480610348823</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.70315699330002</v>
+        <v>23.70315699330548</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35.61833124269016</v>
+        <v>35.61833124261615</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>41.42888987339451</v>
+        <v>41.42888987338655</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-4.914130443342732</v>
+        <v>-4.914130443370926</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.17474304575002</v>
+        <v>29.17474304572364</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>44.39588204684777</v>
+        <v>44.3958820468239</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.20637393413337</v>
+        <v>50.20637393413269</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>42.06981357698125</v>
+        <v>42.06981357701058</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>47.88034042477706</v>
+        <v>47.88034042480037</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1.536224014746846</v>
+        <v>1.536224014703077</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>35.62562962185372</v>
+        <v>35.62562962185827</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>50.84765534370742</v>
+        <v>50.84765534370457</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>56.65811543888505</v>
+        <v>56.6581154389727</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45.71830253483735</v>
+        <v>45.71830253490215</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>51.52883543852774</v>
+        <v>51.52883543855491</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5.184643128236313</v>
+        <v>5.184643128236882</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>39.27411256445681</v>
+        <v>39.27411256452287</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>54.49632327772032</v>
+        <v>54.4963232777251</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>60.30678942766862</v>
+        <v>60.30678942765475</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>38.92240513879075</v>
+        <v>38.92240513881974</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>44.73303209850964</v>
+        <v>44.73303209853738</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-1.610124713766243</v>
+        <v>-1.610124713728045</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.47904262083581</v>
+        <v>32.47904262093722</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>47.70033327557157</v>
+        <v>47.70033327558998</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>53.5108934897752</v>
+        <v>53.51089348977202</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-17.69247088285748</v>
+        <v>-17.69247088287988</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16.39030176136533</v>
+        <v>16.390301761331</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.61090817227479</v>
+        <v>31.61090817215701</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>37.41852683723404</v>
+        <v>37.41852683714298</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-14.3595783138179</v>
+        <v>-14.35957831381164</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>19.72809295611047</v>
+        <v>19.72809295613321</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-11.24361917450868</v>
+        <v>-11.24361917447787</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22.83968556609387</v>
+        <v>22.83968556612366</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>38.0611785955423</v>
+        <v>38.06117859549171</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>43.86876545254496</v>
+        <v>43.86876545252041</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-7.909496476881362</v>
+        <v>-7.909496476829066</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>26.17870692443467</v>
+        <v>26.17870692445548</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-7.595903545620548</v>
+        <v>-7.595903545559384</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.48746504031977</v>
+        <v>26.48746504039071</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>41.70914305120245</v>
+        <v>41.70914305118562</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>47.51673596333912</v>
+        <v>47.51673596335333</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-4.261245911454683</v>
+        <v>-4.261245911401023</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.82702132800365</v>
+        <v>29.82702132802877</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-14.38935893459551</v>
+        <v>-14.3893589345464</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>19.69370754635794</v>
+        <v>19.69370754638431</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>34.9144656170446</v>
+        <v>34.91446561703505</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>40.72215258652774</v>
+        <v>40.72215258647272</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-11.05594037698664</v>
+        <v>-11.05594037694503</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>23.03202474282115</v>
+        <v>23.03202474282763</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>34.94730115051449</v>
+        <v>34.9473011504531</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.75781839676473</v>
+        <v>40.75781839665241</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-5.585225367505917</v>
+        <v>-5.585225367513988</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.5036501535999</v>
+        <v>28.50365015361445</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>43.72490083502159</v>
+        <v>43.72490083495406</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>49.53535133961476</v>
+        <v>49.53535133961795</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>41.3988018171092</v>
+        <v>41.39880181703008</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>47.20928727968716</v>
+        <v>47.20928727969626</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>0.8651474206262826</v>
+        <v>0.865147420602522</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>34.95455506156237</v>
+        <v>34.95455506157295</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50.17669246476272</v>
+        <v>50.17669246481525</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>55.98711117669383</v>
+        <v>55.98711117671475</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>45.04730121133652</v>
+        <v>45.04730121137256</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>50.85779272993479</v>
+        <v>50.8577927299839</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>4.513576968673316</v>
+        <v>4.513576968724134</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>38.6030484391156</v>
+        <v>38.60304843919018</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>53.82537083445028</v>
+        <v>53.82537083450417</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>59.63579560141467</v>
+        <v>59.63579560137875</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>38.25138457271773</v>
+        <v>38.25138457275786</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>44.06197014798774</v>
+        <v>44.06197014800422</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-2.281210113976147</v>
+        <v>-2.281210113962505</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>31.80795925366079</v>
+        <v>31.80795925367716</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>47.02936158909382</v>
+        <v>47.02936158908678</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>52.839880420417</v>
+        <v>52.83988042036198</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>-24.41899824739084</v>
+        <v>-24.41899824736855</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>9.66257965478793</v>
+        <v>9.662579654827493</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.88363970843262</v>
+        <v>24.88363970842557</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.69167774416293</v>
+        <v>30.69167774414633</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>-21.08499912526735</v>
+        <v>-21.08499912519425</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>13.00147730584082</v>
+        <v>13.00147730585287</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-17.97003860542587</v>
+        <v>-17.97003860535027</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>16.11207138374347</v>
+        <v>16.11207138372914</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.33401806767462</v>
+        <v>31.33401806785106</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>37.14202430221953</v>
+        <v>37.14202430234481</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>-14.63480935102915</v>
+        <v>-14.63480935099323</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>19.45219920169394</v>
+        <v>19.45219920170485</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>-14.32220620866871</v>
+        <v>-14.32220620866837</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>19.75996762877913</v>
+        <v>19.75996762877481</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>34.98209929588155</v>
+        <v>34.9820992958761</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>40.790111587217</v>
+        <v>40.79011158726702</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>-10.98644202285435</v>
+        <v>-10.9864420228298</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>23.10063037058729</v>
+        <v>23.10063037061094</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-21.11572408851235</v>
+        <v>-21.11572408859034</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>12.96614764749269</v>
+        <v>12.96614764738377</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.18735936718236</v>
+        <v>28.18735936717793</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.99546571293912</v>
+        <v>33.99546571296788</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-17.78119897803287</v>
+        <v>-17.78119897801195</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>16.30557129996818</v>
+        <v>16.30557129996044</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.22113915626563</v>
+        <v>28.2211391563077</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.03207590388082</v>
+        <v>34.03207590388639</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-12.31031700413051</v>
+        <v>-12.31031700407617</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>21.77736370246192</v>
+        <v>21.77736370245306</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.99906815399005</v>
+        <v>36.99906815392798</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>42.80993810907763</v>
+        <v>42.80993810904251</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>34.67274776219405</v>
+        <v>34.67274776224043</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>40.48365273283333</v>
+        <v>40.48365273293065</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>-5.859836272132714</v>
+        <v>-5.859836272127371</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.22837654429044</v>
+        <v>28.22837654428134</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43.45096772919545</v>
+        <v>43.45096772925469</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>49.26180589821026</v>
+        <v>49.26180589821173</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>38.32136392418285</v>
+        <v>38.32136392424754</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>44.13227495263699</v>
+        <v>44.13227495268099</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>-2.211289962610511</v>
+        <v>-2.211289962526269</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>31.87698668679901</v>
+        <v>31.87698668677286</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>47.09976286621033</v>
+        <v>47.0997628662234</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>52.91060709180876</v>
+        <v>52.91060709179887</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>31.52538479222597</v>
+        <v>31.52538479225019</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>37.33638987441613</v>
+        <v>37.33638987446115</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>-9.006139538235164</v>
+        <v>-9.006139538234255</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.08183501166981</v>
+        <v>25.08183501165719</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>40.30369112317409</v>
+        <v>40.30369112322877</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>46.11462941047638</v>
+        <v>46.11462941050776</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-13.68512008952904</v>
+        <v>-13.68512008955269</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>20.39734976426872</v>
+        <v>20.39734976421006</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>35.61860184982903</v>
+        <v>35.61860184985109</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>41.42669832869809</v>
+        <v>41.42669832863727</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>-10.35027467427857</v>
+        <v>-10.350274674327</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>23.73709370390317</v>
+        <v>23.73709370388293</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-7.236085298791057</v>
+        <v>-7.236085298819365</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.84691664659034</v>
+        <v>26.84691664660444</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>42.06905536827527</v>
+        <v>42.06905536827072</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>47.87712004385277</v>
+        <v>47.87712004386823</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>-3.90000974918313</v>
+        <v>-3.900009749151298</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>30.18789075500468</v>
+        <v>30.18789075503629</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-3.588272140665811</v>
+        <v>-3.588272140652965</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.49479365009291</v>
+        <v>30.49479365019489</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>45.7171173571078</v>
+        <v>45.71711735708597</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>51.52518808841923</v>
+        <v>51.52518808842264</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>-0.251661663814037</v>
+        <v>-0.2516616638709941</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.83630267879632</v>
+        <v>33.83630267872583</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-10.38180488620388</v>
+        <v>-10.3818048861758</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>23.70095880363489</v>
+        <v>23.70095880372766</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>38.92236255884144</v>
+        <v>38.92236255887623</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>44.73052734702061</v>
+        <v>44.73052734701413</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-7.046433482902319</v>
+        <v>-7.046433482874466</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>27.04122874380961</v>
+        <v>27.04122874388873</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>38.95694767352053</v>
+        <v>38.95694767359306</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>44.76794284281063</v>
+        <v>44.76794284286258</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-1.576660062661279</v>
+        <v>-1.576660062746999</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.51191254546724</v>
+        <v>32.51191254549907</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>47.7338090676076</v>
+        <v>47.73380906764034</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>53.54473744358758</v>
+        <v>53.54473744361009</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>45.40863144102208</v>
+        <v>45.40863144104493</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>51.21959483149386</v>
+        <v>51.21959483148977</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>4.873895804928463</v>
+        <v>4.87389580495552</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>38.9630005278366</v>
+        <v>38.96300052789572</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>54.18578379046939</v>
+        <v>54.18578379044983</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>59.99668037808341</v>
+        <v>59.99668037811888</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>49.05722835864835</v>
+        <v>49.05722835864562</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>8.522422872266826</v>
+        <v>8.522422872249205</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>42.6115914253876</v>
+        <v>42.61159142539317</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>57.83455968272462</v>
+        <v>57.83455968266436</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>63.64546232601721</v>
+        <v>63.64546232608406</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>42.26123435857279</v>
+        <v>42.26123435860087</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>48.0722978616068</v>
+        <v>48.07229786166796</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1.727558441431608</v>
+        <v>1.727558441445819</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>35.81642489496177</v>
+        <v>35.81642489497064</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>51.03847308102287</v>
+        <v>51.03847308102105</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>56.84946978810036</v>
+        <v>56.84946978818972</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>-10.73652787612672</v>
+        <v>-10.73652787612433</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>23.34541010693307</v>
+        <v>23.34541010694012</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>38.56600306944837</v>
+        <v>38.56600306940972</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>44.37330171428211</v>
+        <v>44.37330171429598</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-7.402290361637927</v>
+        <v>-7.402290361621557</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.68454596216237</v>
+        <v>26.68454596207131</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>-4.287936349967925</v>
+        <v>-4.287936349971222</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.79453370496459</v>
+        <v>29.7945337049431</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>45.01601325635626</v>
+        <v>45.01601325631238</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>50.82328009223001</v>
+        <v>50.82328009221762</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-0.9524687705279469</v>
+        <v>-0.9524687705199888</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>33.13489965983253</v>
+        <v>33.13489965984731</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>-0.6403754626578468</v>
+        <v>-0.6403754626742177</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>33.4421584318401</v>
+        <v>33.44215843182657</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>48.66382295720963</v>
+        <v>48.66382295715961</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>54.47109584689942</v>
+        <v>54.47109584695944</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>2.695627018193601</v>
+        <v>2.695627018139941</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.78305928095598</v>
+        <v>36.78305928095325</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>-7.433482760956839</v>
+        <v>-7.433482760909545</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.64874904660702</v>
+        <v>26.64874904660122</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>41.86949366788839</v>
+        <v>41.86949366793932</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>47.67686061185476</v>
+        <v>47.67686061184931</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-4.098719286656763</v>
+        <v>-4.098719286588551</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.98841087473864</v>
+        <v>29.98841087470977</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>41.90374092240133</v>
+        <v>41.90374092248352</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>47.71393801231262</v>
+        <v>47.71393801231797</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>1.370785137664267</v>
+        <v>1.370785137648806</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>35.45882559893199</v>
+        <v>35.45882559887754</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>50.68006293091243</v>
+        <v>50.68006293089412</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>56.49019326963266</v>
+        <v>56.49019326960844</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>48.35498128950418</v>
+        <v>48.3549812894761</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>54.16514659487008</v>
+        <v>54.16514659490976</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>7.820897653829331</v>
+        <v>7.82089765389652</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>57.13159423492893</v>
+        <v>57.13159423494928</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>62.9416927797612</v>
+        <v>62.94169277981156</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>52.00332589364736</v>
+        <v>52.00332589361371</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>57.8134972539208</v>
+        <v>57.81349725391443</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.46917241722089</v>
+        <v>11.46917241724419</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>45.55780879757823</v>
+        <v>45.55780879759119</v>
       </c>
     </row>
     <row r="280">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>66.59022240557069</v>
+        <v>66.59022240551975</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>45.2077574701507</v>
+        <v>45.20775747013967</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>51.01802288368664</v>
+        <v>51.0180228836747</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>4.674733508502538</v>
+        <v>4.67473350851709</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>38.76306780364554</v>
+        <v>38.76306780366373</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>53.98445678950658</v>
+        <v>53.98445678955206</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>59.79465544962797</v>
+        <v>59.79465544962979</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>-22.17832831146051</v>
+        <v>-22.17832831137263</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>11.90233645887771</v>
+        <v>11.90233645886111</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.12246640438878</v>
+        <v>27.12246640442289</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>32.93013047103331</v>
+        <v>32.93013047100352</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>-18.84338868013502</v>
+        <v>-18.84338868012229</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>15.24217456646569</v>
+        <v>15.24217456641919</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>-15.72965400901295</v>
+        <v>-15.72965400901079</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>18.35154283582098</v>
+        <v>18.35154283585406</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>33.57255936753633</v>
+        <v>33.57255936760068</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>39.38019163331366</v>
+        <v>39.38019163333412</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-12.39348426379819</v>
+        <v>-12.39348426384298</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>21.69261109199477</v>
+        <v>21.69261109204775</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-12.08202136990143</v>
+        <v>-12.08202136982867</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21.9992393215647</v>
+        <v>21.999239321573</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>37.22044082794174</v>
+        <v>37.22044082794629</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>43.02807914990377</v>
+        <v>43.02807914992742</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>-8.74531670529085</v>
+        <v>-8.745316705288122</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.34084248996352</v>
+        <v>25.34084248993896</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-18.87531495927441</v>
+        <v>-18.87531495920347</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>15.2056436371122</v>
+        <v>15.20564363719371</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>30.42592523217435</v>
+        <v>30.42592523218708</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>36.23365760531318</v>
+        <v>36.23365760534229</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>-15.53984934687638</v>
+        <v>-15.5398493468491</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>18.54600773866003</v>
+        <v>18.5460077386448</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.46090623237911</v>
+        <v>30.46090623236126</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.2714689299652</v>
+        <v>36.27146892995962</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>-10.06865597763282</v>
+        <v>-10.06865597761918</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>24.0181115397345</v>
+        <v>24.01811153968914</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>39.23888564382243</v>
+        <v>39.23888564384232</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>45.04938158195149</v>
+        <v>45.04938158198821</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>36.91222942446701</v>
+        <v>36.91222942452272</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.72276034604194</v>
+        <v>42.72276034605024</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3.618460604876066</v>
+        <v>-3.618460604776136</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30.46883900989338</v>
+        <v>30.46883900992374</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>45.69049980407614</v>
+        <v>45.69049980409274</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>51.5009639568308</v>
+        <v>51.50096395687389</v>
       </c>
     </row>
     <row r="324">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>46.37118278429251</v>
+        <v>46.37118278428797</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>0.02988593267594908</v>
+        <v>0.02988593270834983</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.11724937897363</v>
+        <v>34.1172493789302</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>49.33909515759764</v>
+        <v>49.33909515758855</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>55.14956536629951</v>
+        <v>55.14956536626677</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.76489103027235</v>
+        <v>33.7648910302777</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>39.57552205889148</v>
+        <v>39.57552205884407</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-6.764739331273962</v>
+        <v>-6.764739331224849</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>27.32232202134379</v>
+        <v>27.32232202134561</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>42.54324776937632</v>
+        <v>42.54324776945636</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>48.35381203632598</v>
+        <v>48.35381203640783</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>-18.95216853869828</v>
+        <v>-18.95216853868213</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>15.13029084970857</v>
+        <v>15.13029084971209</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>30.35146981124661</v>
+        <v>30.35146981119398</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>36.15951741976961</v>
+        <v>36.15951741977257</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>-15.61815092299354</v>
+        <v>-15.61815092301594</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>18.46920702270462</v>
+        <v>18.46920702271235</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>-12.50315258940372</v>
+        <v>-12.50315258935779</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>21.5798388929294</v>
+        <v>21.57983889294577</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>36.80190449057149</v>
+        <v>36.80190449064425</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.60992029551848</v>
+        <v>42.60992029553894</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-9.167904838152584</v>
+        <v>-9.16790483809449</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>24.91998523634085</v>
+        <v>24.91998523635017</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>-8.855320783048558</v>
+        <v>-8.855320783040941</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.22773454570871</v>
+        <v>25.22773454570075</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>40.44998512861982</v>
+        <v>40.44998512862641</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>46.25800698969546</v>
+        <v>46.25800698967522</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>-5.519538098219062</v>
+        <v>-5.519538098158808</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.56841581511641</v>
+        <v>28.56841581512232</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>-15.64887226841937</v>
+        <v>-15.64887226839527</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>18.43388095722606</v>
+        <v>18.43388095724221</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>33.65521158615867</v>
+        <v>33.65521158617811</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.46332750371643</v>
+        <v>39.46332750378828</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>-12.31432866352235</v>
+        <v>-12.31432866352769</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>21.77332313204284</v>
+        <v>21.77332313207831</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>33.68898781834481</v>
+        <v>33.68898781832935</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>39.49993412251935</v>
+        <v>39.49993412249854</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-6.844072849389466</v>
+        <v>-6.844072849417547</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>27.24448934458668</v>
+        <v>27.24448934456667</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>42.46631271721471</v>
+        <v>42.46631271720788</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>48.27719223495752</v>
+        <v>48.27719223497219</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>40.14065274920019</v>
+        <v>40.14065274921815</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>45.95156727424173</v>
+        <v>45.95156727426424</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-0.3935358144957384</v>
+        <v>-0.3935358144629966</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>33.69555849641655</v>
+        <v>33.69555849641644</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>48.91826860919254</v>
+        <v>48.91826860920959</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>54.72911633884463</v>
+        <v>54.72911633887851</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>43.78926832224444</v>
+        <v>43.78926832227593</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>49.60018890448625</v>
+        <v>49.60018890449682</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>3.255009907863506</v>
+        <v>3.255009907829059</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>37.34416804986428</v>
+        <v>37.34416804979107</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>52.56706315818134</v>
+        <v>52.56706315816815</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>58.37791694368731</v>
+        <v>58.37791694368345</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.99325557167198</v>
+        <v>36.993255571658</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>42.80427020966512</v>
+        <v>42.80427020971378</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-3.539873272538774</v>
+        <v>-3.539873272558669</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>30.54898276793746</v>
+        <v>30.54898276791654</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>45.77095780248727</v>
+        <v>45.77095780251194</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>51.58190565169265</v>
+        <v>51.58190565177519</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>-5.677309650190058</v>
+        <v>-5.677309650199494</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.40548090776077</v>
+        <v>28.4054809077128</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>43.62637300960888</v>
+        <v>43.62637300953271</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>49.43385193168298</v>
+        <v>49.43385193164706</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-2.345382731774055</v>
+        <v>-2.345382731748817</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>31.74230628060901</v>
+        <v>31.74230628057093</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>0.7714989273891995</v>
+        <v>0.7714989273541839</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>34.85482157132959</v>
+        <v>34.85482157143998</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>50.07660028284512</v>
+        <v>50.07660028289526</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.88404739611759</v>
+        <v>55.88404739613885</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>4.104655939117503</v>
+        <v>4.104655939103292</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>38.19287707324669</v>
+        <v>38.19287707323146</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>4.419122026544425</v>
+        <v>4.419122026560682</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>38.50250851324962</v>
+        <v>38.50250851328225</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>53.72447220324365</v>
+        <v>53.72447220331232</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>59.53192537059921</v>
+        <v>59.53192537054532</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>7.752813964987364</v>
+        <v>7.752813964863901</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>41.84109893373467</v>
+        <v>41.84109893374479</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>-2.37420655928371</v>
+        <v>-2.374206559194011</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>31.70887783081856</v>
+        <v>31.70887783079185</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>46.92992159377469</v>
+        <v>46.92992159377651</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>52.73746881749004</v>
+        <v>52.73746881736226</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>0.958246335628484</v>
+        <v>0.9582463356513351</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>35.04622919304951</v>
+        <v>35.04622919309669</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>46.96180017298072</v>
+        <v>46.96180017298776</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>52.77217760899795</v>
+        <v>52.7721776090258</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>6.427888335785507</v>
+        <v>6.427888335835075</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>40.51678153462787</v>
+        <v>40.51678153459285</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>55.73831786531004</v>
+        <v>55.73831786529162</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>61.54862853963563</v>
+        <v>61.5486285395374</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>53.41325765472392</v>
+        <v>53.41325765476167</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>59.22360330650316</v>
+        <v>59.22360330644769</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>12.87821794086291</v>
+        <v>12.87821794082471</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>46.96764324903303</v>
+        <v>46.96764324903496</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>62.19006629333468</v>
+        <v>62.19006629335185</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>68.00034517385281</v>
+        <v>68.00034517391386</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>57.06166450335617</v>
+        <v>57.06166450336561</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>62.87201621002909</v>
+        <v>62.87201621011265</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>16.52655494611714</v>
+        <v>16.52655494601676</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>50.61604408134578</v>
+        <v>50.61604408132622</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>65.83865211382262</v>
+        <v>65.83865211387582</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>71.64893704834402</v>
+        <v>71.64893704831083</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>50.2658747221766</v>
+        <v>50.26587472224402</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>56.07632048422683</v>
+        <v>56.07632048419283</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>9.731894710137009</v>
+        <v>9.731894710144285</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>43.82108175007865</v>
+        <v>43.82108175008774</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>59.04276973585549</v>
+        <v>59.04276973586856</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>64.85314873375866</v>
+        <v>64.85314873378378</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-25.79267369958074</v>
+        <v>-25.79267369961166</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>8.287353074946974</v>
+        <v>8.287353074933559</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>23.50631793608364</v>
+        <v>23.5063179360733</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.3141662364758</v>
+        <v>29.31416623648137</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>-22.45814131675091</v>
+        <v>-22.4581413167367</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.62678393021521</v>
+        <v>11.62678393025204</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>-19.34410727733699</v>
+        <v>-19.34410727729118</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>14.73645156722968</v>
+        <v>14.73645156725696</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.95630299252378</v>
+        <v>29.95630299251196</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.76411949443992</v>
+        <v>35.7641194944281</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-16.00834479174852</v>
+        <v>-16.00834479176875</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>18.07711256021106</v>
+        <v>18.07711256027529</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-15.69652643804305</v>
+        <v>-15.69652643799656</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>18.38409625299768</v>
+        <v>18.3840962530535</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.604132649774</v>
+        <v>33.60413264978878</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>39.4119552080265</v>
+        <v>39.41195520799558</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-12.36022903766547</v>
+        <v>-12.36022903769309</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>21.72529215329531</v>
+        <v>21.72529215331464</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-22.48974706991838</v>
+        <v>-22.48974706985176</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>11.59057352518802</v>
+        <v>11.59057352511526</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.80969003052236</v>
+        <v>26.80969003053157</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>32.61760663937561</v>
+        <v>32.61760663936867</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-19.1546887165449</v>
+        <v>-19.15468871653887</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>14.93053036390314</v>
+        <v>14.93053036393486</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.84435047576154</v>
+        <v>26.84435047575881</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>32.65509737099184</v>
+        <v>32.65509737099013</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-13.68350031994725</v>
+        <v>-13.6835003200175</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.402629191222</v>
+        <v>20.40262919122575</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.62223814089624</v>
+        <v>35.6222381409241</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>41.43291829642182</v>
+        <v>41.43291829640511</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>33.29556575033054</v>
+        <v>33.29556575031951</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>39.10628087160423</v>
+        <v>39.10628087161969</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-7.233412842012843</v>
+        <v>-7.233412842003066</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.85324876214646</v>
+        <v>26.85324876212134</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>42.07374437996613</v>
+        <v>42.07374438001672</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>47.88439275238558</v>
+        <v>47.88439275240104</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.9439303238528</v>
+        <v>36.94393032384006</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>42.75465150260517</v>
+        <v>42.75465150257345</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-3.585118111665441</v>
+        <v>-3.585118111734676</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>30.50160732364521</v>
+        <v>30.50160732361918</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>45.72228792299292</v>
+        <v>45.72228792300668</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>51.53294235149384</v>
+        <v>51.53294235146042</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>30.14824853026222</v>
+        <v>30.14824853029576</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.95906375846631</v>
+        <v>35.95906375850565</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>-10.379670412893</v>
+        <v>-10.37967041291369</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.70675292773559</v>
+        <v>23.70675292777697</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>38.92651351618635</v>
+        <v>38.92651351615645</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>44.73726200231012</v>
+        <v>44.73726200229545</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-15.84559577309198</v>
+        <v>-15.8455957730872</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>18.23624950667171</v>
+        <v>18.23624950671548</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>33.45640553904401</v>
+        <v>33.45640553906846</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.26395928066883</v>
+        <v>39.26395928062938</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>-12.51155760164623</v>
+        <v>-12.51155760155483</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>21.57518618218729</v>
+        <v>21.57518618217228</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-9.396951890054527</v>
+        <v>-9.396951890009735</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>24.68542547081905</v>
+        <v>24.68542547086271</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>39.90646809506576</v>
+        <v>39.90646809501062</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>45.71399003005935</v>
+        <v>45.71399003004275</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-6.061683629699463</v>
+        <v>-6.061683629638527</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.02559226995892</v>
+        <v>28.02559226995369</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>-5.749340275325256</v>
+        <v>-5.749340275239422</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.33310092881949</v>
+        <v>28.3331009288852</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>43.55432852844366</v>
+        <v>43.55432852841945</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>49.36185651826771</v>
+        <v>49.36185651823145</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-2.413537100931638</v>
+        <v>-2.413537100927091</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>31.67380263522831</v>
+        <v>31.6738026352498</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>-12.54256025083179</v>
+        <v>-12.54256025079336</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>21.53957885717035</v>
+        <v>21.53957885718786</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>36.75988654505683</v>
+        <v>36.75988654514903</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>42.56750858935767</v>
+        <v>42.56750858941054</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-9.207996110699003</v>
+        <v>-9.207996110652619</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>24.87904151458453</v>
+        <v>24.87904151461522</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.7939441257587</v>
+        <v>36.79394412577246</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>42.6043963754246</v>
+        <v>42.60439637545802</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>-3.73777513803201</v>
+        <v>-3.737775137994266</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>30.35017285322148</v>
+        <v>30.350172853181</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>45.57097321916594</v>
+        <v>45.57097321911364</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>51.38135872603722</v>
+        <v>51.38135872599936</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.24523688609158</v>
+        <v>43.24523688613841</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>49.05565735370114</v>
+        <v>49.05565735381164</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2.712389774562791</v>
+        <v>2.712389774539712</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>36.80086987073754</v>
+        <v>36.80086987073072</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>52.02255693245469</v>
+        <v>52.02255693240626</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>57.83291064775189</v>
+        <v>57.83291064765321</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>46.89363223512932</v>
+        <v>46.89363223496242</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>52.70405875829489</v>
+        <v>52.70405875812186</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>6.360715281024238</v>
+        <v>6.36071528101105</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>40.44925920483321</v>
+        <v>40.44925920485186</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>55.6711312518146</v>
+        <v>55.67113125175173</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>61.48149102185882</v>
+        <v>61.48149102179276</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.09795109003495</v>
+        <v>40.09795109008589</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>45.90847166702726</v>
+        <v>45.90847166704829</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-0.4338363427503857</v>
+        <v>-0.4338363427522047</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>33.65440548668256</v>
+        <v>33.65440548668995</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>48.8753575027538</v>
+        <v>48.87535750262317</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>54.68581133442741</v>
+        <v>54.68581133438501</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>-25.22966279999229</v>
+        <v>-25.22966279998115</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>8.85123873953729</v>
+        <v>8.851238739547409</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>24.07106533688353</v>
+        <v>24.07106533687796</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.87858859900701</v>
+        <v>29.87858859892971</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>-21.89680541255006</v>
+        <v>-21.89680541252755</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>12.18899464784841</v>
+        <v>12.18899464788388</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>-18.78106195138047</v>
+        <v>-18.78106195135137</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>15.30037166473029</v>
+        <v>15.30037166470471</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>30.52108484827489</v>
+        <v>30.52108484831468</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.32857630666673</v>
+        <v>36.32857630671562</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-15.44697446796203</v>
+        <v>-15.44697446793883</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>18.63935770364482</v>
+        <v>18.63935770363117</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>-15.13343912461368</v>
+        <v>-15.13343912464346</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>18.94805833788292</v>
+        <v>18.94805833786792</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>34.16895649615732</v>
+        <v>34.16895649619279</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>39.97645401012984</v>
+        <v>39.97645401014496</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-11.79881671714928</v>
+        <v>-11.79881671717498</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>22.28757929344966</v>
+        <v>22.28757929343704</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-21.92668195348903</v>
+        <v>-21.9266819534672</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>12.15451341308097</v>
+        <v>12.15451341308768</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>27.37449166159082</v>
+        <v>27.37449166167893</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.18208322773116</v>
+        <v>33.18208322784757</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-18.5932985890439</v>
+        <v>-18.59329858904549</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>15.49279531096932</v>
+        <v>15.49279531097603</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.40742297446299</v>
+        <v>27.40742297438784</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>33.21784477935832</v>
+        <v>33.21784477931432</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-13.121728589114</v>
+        <v>-13.12172858909809</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.96527574445635</v>
+        <v>20.96527574445862</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>36.18574652938186</v>
+        <v>36.1857465293573</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>41.99610159323187</v>
+        <v>41.99610159320243</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>33.8586726969253</v>
+        <v>33.85867269693553</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>39.66906272259486</v>
+        <v>39.66906272264545</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-6.671606685967266</v>
+        <v>-6.671606685945552</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>27.415929747296</v>
+        <v>27.41592974733375</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>42.63728722207578</v>
+        <v>42.63728722209488</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>48.44761049711737</v>
+        <v>48.44761049711771</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>37.50707927088582</v>
+        <v>37.50707927097302</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>43.31747535313743</v>
+        <v>43.31747535314823</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-3.023269955263789</v>
+        <v>-3.023269955231161</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.06433030875133</v>
+        <v>31.06433030873212</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>46.28587276836915</v>
+        <v>46.28587276839438</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>52.09620209886272</v>
+        <v>52.09620209888</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.71137526463202</v>
+        <v>30.71137526474741</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.52186539844651</v>
+        <v>36.52186539845185</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>-9.817844452536509</v>
+        <v>-9.817844452525708</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>24.26945371738658</v>
+        <v>24.26945371744558</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>39.49007614723918</v>
+        <v>39.49007614722952</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>45.30049953728077</v>
+        <v>45.3004995373043</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>-29.11108710323309</v>
+        <v>-29.11108710328209</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>4.968607921489149</v>
+        <v>4.968607921483578</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>20.18783731427471</v>
+        <v>20.18783731426573</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.99522459075935</v>
+        <v>25.99522459076196</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-25.77727341766955</v>
+        <v>-25.77727341776141</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>8.307320014089111</v>
+        <v>8.307320014041704</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>-22.6627262032</v>
+        <v>-22.66272620317988</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>11.41750088198115</v>
+        <v>11.41750088198331</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.63761683051099</v>
+        <v>26.63761683044403</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>32.44497230443564</v>
+        <v>32.44497230441597</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-19.3276824552538</v>
+        <v>-19.32768245523049</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>14.75744307121705</v>
+        <v>14.75744307124218</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-19.0151986305077</v>
+        <v>-19.01519863052384</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>15.06509229956385</v>
+        <v>15.06509229957033</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>30.28539321742199</v>
+        <v>30.28539321743427</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>36.09275474710104</v>
+        <v>36.09275474713446</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>-15.67961997778308</v>
+        <v>-15.67961997770964</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>18.40556938650185</v>
+        <v>18.40556938645922</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-25.80820748117911</v>
+        <v>-25.80820748118525</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>8.271781361795899</v>
+        <v>8.2717813618499</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>23.49116240000991</v>
+        <v>23.49116239996307</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.29861797896355</v>
+        <v>29.29861797895263</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-22.4738678349455</v>
+        <v>-22.47386783501951</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>11.61101942781444</v>
+        <v>11.61101942781694</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.52515121385012</v>
+        <v>23.52515121377793</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.33543696297842</v>
+        <v>29.33543696290634</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-17.00230001696956</v>
+        <v>-17.00230001698855</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>17.08349765424499</v>
+        <v>17.08349765422259</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.30337126593157</v>
+        <v>32.3033712658961</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>38.11359027962898</v>
+        <v>38.11359027959237</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.97616090741191</v>
+        <v>29.97616090739394</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>35.78641487875554</v>
+        <v>35.78641487875247</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-10.55241810105575</v>
+        <v>-10.55241810108508</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.53391165353413</v>
+        <v>23.53391165354482</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.75467192440819</v>
+        <v>38.75467192441501</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>44.56485915109137</v>
+        <v>44.56485915108568</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>33.62447220033177</v>
+        <v>33.62447220028072</v>
       </c>
     </row>
     <row r="613">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-6.904176649541103</v>
+        <v>-6.904176649556451</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>27.18221693477416</v>
+        <v>27.18221693478041</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>42.40316218494344</v>
+        <v>42.40316218493298</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>48.21335546702643</v>
+        <v>48.21335546702586</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.82900224926119</v>
+        <v>26.82900224927745</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>32.63935632542633</v>
+        <v>32.63935632540974</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>-13.69851713142201</v>
+        <v>-13.6985171313729</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>20.38757436761183</v>
+        <v>20.38757436764218</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.60759961902262</v>
+        <v>35.60759961898295</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>41.41788695743857</v>
+        <v>41.41788695741674</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>-20.66437946947302</v>
+        <v>-20.66437946953328</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>13.41770904956628</v>
+        <v>13.41770904959163</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.63882819319941</v>
+        <v>28.63882819324318</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>34.44700544047511</v>
+        <v>34.44700544050535</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-17.33093160811392</v>
+        <v>-17.33093160815996</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>16.75605550664285</v>
+        <v>16.75605550662511</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-14.21530279144553</v>
+        <v>-14.21530279143416</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.86731782292612</v>
+        <v>19.86731782296978</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>35.08932360566281</v>
+        <v>35.08932360564826</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>40.89746905179267</v>
+        <v>40.89746905167671</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-10.88062478028825</v>
+        <v>-10.88062478025562</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>23.20689446465168</v>
+        <v>23.20689446466828</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>-10.56744345935146</v>
+        <v>-10.56744345935111</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>23.51524100380358</v>
+        <v>23.51524100383837</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>38.73743177290795</v>
+        <v>38.73743177288362</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>44.54558327567578</v>
+        <v>44.54558327571011</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-7.232230506150234</v>
+        <v>-7.232230506188206</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.85535258020014</v>
+        <v>26.85535258022243</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>-17.36108039351574</v>
+        <v>-17.36108039348982</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>16.72130196346792</v>
+        <v>16.72130196340403</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.94257277316775</v>
+        <v>31.94257277311807</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>37.75081833179378</v>
+        <v>37.75081833174194</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-14.02710653534642</v>
+        <v>-14.02710653531721</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>20.06017443015959</v>
+        <v>20.06017443017505</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.97577636616019</v>
+        <v>31.97577636611016</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>37.78685236453204</v>
+        <v>37.78685236452033</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-8.556292205164699</v>
+        <v>-8.556292205189141</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.53189920755211</v>
+        <v>25.53189920751755</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>40.75366266998334</v>
+        <v>40.75366266994924</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>46.56467187878765</v>
+        <v>46.56467187884029</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.42750204361461</v>
+        <v>38.42750204357436</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.23854626554193</v>
+        <v>44.2385462655317</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>-2.105694418220413</v>
+        <v>-2.105694418145834</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>31.98302911327972</v>
+        <v>31.9830291132878</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.20567931903396</v>
+        <v>47.2056793190019</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>53.01665674195932</v>
+        <v>53.01665674201321</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.0761451546032</v>
+        <v>42.07614515462923</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>47.8871954342592</v>
+        <v>47.88719543427796</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>1.542878841020876</v>
+        <v>1.542878840977334</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.6316662059569</v>
+        <v>35.63166620595463</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>50.85450140822083</v>
+        <v>50.85450140821128</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>56.66548488752757</v>
+        <v>56.66548488755099</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>35.28004693146126</v>
+        <v>35.28004693149002</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>41.09119126605641</v>
+        <v>41.09119126607051</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-5.252089809189659</v>
+        <v>-5.252089809185907</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.83639545085124</v>
+        <v>28.83639545087761</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.0583105738</v>
+        <v>44.0583105738374</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>49.8693881162459</v>
+        <v>49.86938811628842</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>-19.43654272090759</v>
+        <v>-19.43654272098364</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>14.6445626383893</v>
+        <v>14.64456263831745</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.86414924750455</v>
+        <v>29.86414924748807</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>35.67186198931269</v>
+        <v>35.67186198929075</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>-16.10393022555273</v>
+        <v>-16.10393022561231</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>17.98207363044925</v>
+        <v>17.98207363045925</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>-12.98791764537178</v>
+        <v>-12.98791764529493</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>21.09371979133335</v>
+        <v>21.09371979129504</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.314192982406</v>
+        <v>36.31419298239497</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>42.1218739210798</v>
+        <v>42.12187392109605</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>-9.65407505652546</v>
+        <v>-9.654075056542059</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>24.4324609117008</v>
+        <v>24.43246091166976</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-9.340321964710245</v>
+        <v>-9.340321964742191</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>24.7413793169858</v>
+        <v>24.74137931698261</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>39.96203748186339</v>
+        <v>39.96203748192012</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.76972447622371</v>
+        <v>45.76972447617676</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>-6.005944454071017</v>
+        <v>-6.00594445409978</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.08065535194408</v>
+        <v>28.08065535193453</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-16.13356232925536</v>
+        <v>-16.13356232925956</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>17.94783685580127</v>
+        <v>17.94783685577034</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>33.16757511548236</v>
+        <v>33.16757511552727</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>38.97535616255313</v>
+        <v>38.97535616260485</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>-12.80042386363379</v>
+        <v>-12.80042386363617</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>21.28587383094499</v>
+        <v>21.2858738309426</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>33.20026198205609</v>
+        <v>33.20026198202233</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.01087325883192</v>
+        <v>39.01087325879327</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>-7.329662487228905</v>
+        <v>-7.329662487204462</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.75754561078851</v>
+        <v>26.7575456108624</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>41.97777639299149</v>
+        <v>41.97777639294442</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>47.78832093065729</v>
+        <v>47.78832093065445</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.6515359257652</v>
+        <v>39.65153592574713</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.46211542421692</v>
+        <v>45.46211542416098</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-0.8795163695984805</v>
+        <v>-0.8795163695614185</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.2082238286073</v>
+        <v>33.20822382866028</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>48.42934129672655</v>
+        <v>48.42934129669142</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>54.23985404661268</v>
+        <v>54.23985404658846</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>43.29991534923148</v>
+        <v>43.29991534922864</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>49.11050090420169</v>
+        <v>49.11050090415632</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>2.768793211083572</v>
+        <v>2.768793211043896</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.85659723904452</v>
+        <v>36.85659723906942</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>52.07789969167381</v>
+        <v>52.07789969157695</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>57.88841849692768</v>
+        <v>57.88841849690495</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>36.50421380964339</v>
+        <v>36.50421380968591</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.31489341644637</v>
+        <v>42.31489341643068</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>-4.025778817454796</v>
+        <v>-4.025778817460822</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>30.06172311537206</v>
+        <v>30.06172311539411</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>45.28210554240435</v>
+        <v>45.28210554234012</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>51.09271840764622</v>
+        <v>51.09271840764633</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>-9.702715899078942</v>
+        <v>-9.702715899075873</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.3806140073781</v>
+        <v>24.38061400737821</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>39.60216508322334</v>
+        <v>39.60216508315945</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>45.41035327020474</v>
+        <v>45.41035327019758</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-6.369674996266202</v>
+        <v>-6.369674996238349</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.71855351566297</v>
+        <v>27.71855351561829</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>-3.253532073120471</v>
+        <v>-3.253532073123882</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.83032993722226</v>
+        <v>30.83032993719895</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>46.05276766477188</v>
+        <v>46.05276766477802</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>51.86092404783257</v>
+        <v>51.86092404782063</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>0.08073898253656964</v>
+        <v>0.08073898246153632</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.16949963297033</v>
+        <v>34.1694996328862</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>0.3943293731845294</v>
+        <v>0.3943293732375075</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>34.47825522977111</v>
+        <v>34.47825522975576</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>49.70087794656958</v>
+        <v>49.70087794653161</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>55.50904038505065</v>
+        <v>55.50904038504406</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>3.729135374044187</v>
+        <v>3.729135373976998</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>37.81795986326337</v>
+        <v>37.81795986322426</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>-6.399355211390787</v>
+        <v>-6.399355211417845</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>27.68426853729558</v>
+        <v>27.68426853730388</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>42.90597128444735</v>
+        <v>42.90597128450032</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>48.7142277817568</v>
+        <v>48.71422778175544</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-3.065788312513394</v>
+        <v>-3.065788312561711</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>31.02273405452253</v>
+        <v>31.02273405448194</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>42.93870633555731</v>
+        <v>42.93870633551457</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>48.7497932563589</v>
+        <v>48.74979325631547</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>2.404038517098353</v>
+        <v>2.404038517052992</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.49347127921614</v>
+        <v>36.49347127917885</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>51.71566669816504</v>
+        <v>51.71566669809853</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>57.52668682306854</v>
+        <v>57.52668682306343</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>49.39053918540039</v>
+        <v>49.39053918544961</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>55.2015943266896</v>
+        <v>55.20159432675543</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>8.854743445392398</v>
+        <v>8.854743445426845</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.94470833403217</v>
+        <v>42.94470833403479</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>58.16779050859169</v>
+        <v>58.16779050860931</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>63.97877884469086</v>
+        <v>63.97877884468438</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>53.0391844134257</v>
+        <v>53.03918441341922</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>58.85024561142804</v>
+        <v>58.85024561139586</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>12.50331882220418</v>
+        <v>12.50331882221066</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>46.59334754165049</v>
+        <v>46.59334754164048</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>61.81661471485769</v>
+        <v>61.81661471487679</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>67.62760910644194</v>
+        <v>67.62760910641602</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>46.24303852207426</v>
+        <v>46.24303852211314</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>52.05419377764362</v>
+        <v>52.05419377763896</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>5.708302523137387</v>
+        <v>5.708302523162399</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.79802913684036</v>
+        <v>39.79802913684399</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>55.02037622101012</v>
+        <v>55.02037622110289</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>60.83146467809026</v>
+        <v>60.83146467814733</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>-15.88066105093263</v>
+        <v>-15.88066105087306</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>18.20094891543557</v>
+        <v>18.20094891546274</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.42207651572893</v>
+        <v>33.42207651575576</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>39.23014767338181</v>
+        <v>39.23014767339761</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-12.54674347181843</v>
+        <v>-12.54674347187846</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.53976494045731</v>
+        <v>21.53976494040286</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>-9.431692355906296</v>
+        <v>-9.431692355986105</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>24.65044969340967</v>
+        <v>24.65044969341626</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>39.872463918745</v>
+        <v>39.87246391867588</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>45.68050327530899</v>
+        <v>45.6805032752866</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-6.096544659719701</v>
+        <v>-6.096544659656832</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>27.99049587036826</v>
+        <v>27.99049587041544</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>-5.783910757504589</v>
+        <v>-5.78391075751971</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.29829513785195</v>
+        <v>28.29829513787957</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>43.52049434649065</v>
+        <v>43.52049434648451</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>49.32853975930551</v>
+        <v>49.32853975924696</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-2.448228135120974</v>
+        <v>-2.448228135146554</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>31.63887623342056</v>
+        <v>31.63887623337235</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>-12.57738124354465</v>
+        <v>-12.57738124355989</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>21.50452255417703</v>
+        <v>21.50452255425456</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.72580182179935</v>
+        <v>36.72580182180754</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>42.53394128877939</v>
+        <v>42.53394128875767</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-9.242937682752075</v>
+        <v>-9.242937682684659</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>24.84386457372387</v>
+        <v>24.84386457376798</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>36.7594943849049</v>
+        <v>36.75949438488762</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>42.57046421620431</v>
+        <v>42.57046421619204</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-3.772965861771116</v>
+        <v>-3.772965861760088</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>30.31474678831013</v>
+        <v>30.31474678836049</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>45.53651878732298</v>
+        <v>45.53651878728523</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>51.34742181956575</v>
+        <v>51.34742181956689</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>43.21111202015926</v>
+        <v>43.21111202012925</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>49.02205007490842</v>
+        <v>49.02205007490797</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>2.677523896166814</v>
+        <v>2.677523896146692</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.76576865201777</v>
+        <v>36.76576865203141</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>51.98842738019688</v>
+        <v>51.98842738011582</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>57.7992986264759</v>
+        <v>57.79929862645351</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>46.85967737563068</v>
+        <v>46.85967737563398</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>52.67062148748415</v>
+        <v>52.67062148747597</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>6.326019399836252</v>
+        <v>6.32601939989571</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>40.41432798599136</v>
+        <v>40.4143279860199</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>55.63717170770009</v>
+        <v>55.63717170765268</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>61.44804900985959</v>
+        <v>61.4480490098115</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>40.06374566202125</v>
+        <v>40.06374566198942</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>45.87478382738233</v>
+        <v>45.87478382733686</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-0.4687827618468994</v>
+        <v>-0.4687827618572449</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>33.61922372858466</v>
+        <v>33.61922372854782</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>48.84114738948428</v>
+        <v>48.84114738947973</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>54.65211875323588</v>
+        <v>54.65211875320496</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-17.39416601298955</v>
+        <v>-17.39416601304048</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.68871054892407</v>
+        <v>16.68871054893306</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>31.9093264443078</v>
+        <v>31.90932644429075</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>37.71737576623072</v>
+        <v>37.71737576619616</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-14.06111524784795</v>
+        <v>-14.06111524783704</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>20.02665998263741</v>
+        <v>20.02665998253816</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-10.94513189040071</v>
+        <v>-10.94513189036944</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.13827677442454</v>
+        <v>23.13827677444216</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>38.35977930206072</v>
+        <v>38.3597793020847</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>44.16779681946231</v>
+        <v>44.16779681948209</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-7.610850973366826</v>
+        <v>-7.610850973356253</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.47745639436756</v>
+        <v>26.47745639439246</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-7.297328049873148</v>
+        <v>-7.297328049886676</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.78614446221969</v>
+        <v>26.78614446223424</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>42.0078319750718</v>
+        <v>42.00783197506475</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>47.81585554822176</v>
+        <v>47.81585554814582</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-3.962512188377435</v>
+        <v>-3.962512188373797</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>30.12585901923081</v>
+        <v>30.12585901924809</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>-14.09095155433464</v>
+        <v>-14.09095155432827</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>19.99221884683187</v>
+        <v>19.99221884685097</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.21298640579631</v>
+        <v>35.2129864057945</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>41.02110403720111</v>
+        <v>41.02110403718883</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-10.75737479550604</v>
+        <v>-10.75737479549433</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>23.33069428678506</v>
+        <v>23.33069428680404</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>35.24587761554416</v>
+        <v>35.24587761554928</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>41.05682561342077</v>
+        <v>41.05682561340531</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>-5.286913617537142</v>
+        <v>-5.286913617482686</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.8020658840344</v>
+        <v>28.80206588403918</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>44.0233260534924</v>
+        <v>44.0233260535024</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>49.83420729460944</v>
+        <v>49.83420729462399</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>41.69756074006808</v>
+        <v>41.69756074004705</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>47.50847695802908</v>
+        <v>47.50847695800077</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1.163641608967293</v>
+        <v>1.163641609020498</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>35.25315323641168</v>
+        <v>35.25315323638473</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.47530014176415</v>
+        <v>50.47530014186908</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>56.28614959355743</v>
+        <v>56.28614959357641</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>45.34614835864569</v>
+        <v>45.3461483586657</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>51.15707063322635</v>
+        <v>51.15707063327456</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>4.812159377773934</v>
+        <v>4.812159377775753</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>38.9017348368658</v>
+        <v>38.90173483684863</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>54.12406673753448</v>
+        <v>54.12406673759257</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>59.93492224490923</v>
+        <v>59.93492224498551</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>38.55006355971354</v>
+        <v>38.55006355977913</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>44.36107989156473</v>
+        <v>44.36107989154881</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-1.982795845487079</v>
+        <v>-1.982795845472527</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>32.10647750476211</v>
+        <v>32.10647750476495</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>47.32788933153905</v>
+        <v>47.32788933157589</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>53.13883890436877</v>
+        <v>53.13883890444198</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>-22.66775720658847</v>
+        <v>-22.667757206573</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>11.41283704371348</v>
+        <v>11.41283704372928</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.63304877961992</v>
+        <v>26.63304877963982</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>32.44103631571978</v>
+        <v>32.44103631569784</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-19.33302831554601</v>
+        <v>-19.33302831556704</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>14.75246438635817</v>
+        <v>14.75246438636703</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>-16.21895381580633</v>
+        <v>-16.21895381580429</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>17.86217250956259</v>
+        <v>17.8621725095643</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>33.08327084479994</v>
+        <v>33.08327084472354</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>38.89122658204691</v>
+        <v>38.89122658203156</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-12.88299480445709</v>
+        <v>-12.88299480447221</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>21.20303000734067</v>
+        <v>21.20303000732714</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>-12.57123869970666</v>
+        <v>-12.57123869970905</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>21.50995147304674</v>
+        <v>21.50995147303889</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.73123478621257</v>
+        <v>36.73123478615175</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>42.53919658035296</v>
+        <v>42.53919658039355</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>-9.234744767062796</v>
+        <v>-9.234744767068481</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>24.85134388415691</v>
+        <v>24.85134388417078</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>-19.36462148681118</v>
+        <v>-19.36462148677753</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>14.71626658925687</v>
+        <v>14.71626658927142</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.93662998057449</v>
+        <v>29.93662998058188</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>35.74468582701174</v>
+        <v>35.74468582694989</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-16.02936661621503</v>
+        <v>-16.02936661615148</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>18.05641992452889</v>
+        <v>18.05641992455959</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.9712778504461</v>
+        <v>29.9712778504187</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>35.78216407053777</v>
+        <v>35.78216407050731</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-10.55865857297043</v>
+        <v>-10.55865857299112</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>23.52803839870263</v>
+        <v>23.52803839874083</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>38.74889434926219</v>
+        <v>38.74889434921467</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>44.55971378746518</v>
+        <v>44.55971378737333</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.42273015059767</v>
+        <v>36.42273015053321</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>42.23358459660564</v>
+        <v>42.23358459664907</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-4.10833410916381</v>
+        <v>-4.108334109181431</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.97889496070549</v>
+        <v>29.97889496063989</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>45.20063761427845</v>
+        <v>45.20063761431005</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>51.01142526919763</v>
+        <v>51.011425269258</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.0712290144112</v>
+        <v>40.07122901436061</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>45.88208951819071</v>
+        <v>45.88208951811966</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-0.4599050935219005</v>
+        <v>-0.459905093539863</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>33.62738780808787</v>
+        <v>33.62738780812607</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>48.84931544931364</v>
+        <v>48.84931544928226</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>54.66010916082827</v>
+        <v>54.660109160841</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>33.27538502018184</v>
+        <v>33.27538502019446</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>39.08633957538792</v>
+        <v>39.08633957541839</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-7.254619564119128</v>
+        <v>-7.254619564142775</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>26.83237124317715</v>
+        <v>26.83237124319534</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>42.05337884344171</v>
+        <v>42.05337884341351</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>47.86426661427107</v>
+        <v>47.86426661422605</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-17.33650952514835</v>
+        <v>-17.33650952509923</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>16.74483176473849</v>
+        <v>16.74483176469029</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>31.96584434195723</v>
+        <v>31.96584434192495</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>37.77393895933632</v>
+        <v>37.7739389593519</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>-14.00261827494613</v>
+        <v>-14.00261827493977</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>20.08362145359048</v>
+        <v>20.08362145357206</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-10.88755663225389</v>
+        <v>-10.88755663225605</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>23.19431673913938</v>
+        <v>23.19431673912858</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>38.41621593850358</v>
+        <v>38.41621593850847</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>44.22427875608447</v>
+        <v>44.22427875609539</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-7.552435263817632</v>
+        <v>-7.552435263772839</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.53433658081384</v>
+        <v>26.53433658084772</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-7.239779928773363</v>
+        <v>-7.239779928722204</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.84215728877099</v>
+        <v>26.84215728877929</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>42.06424147058807</v>
+        <v>42.0642414705742</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>47.87231034456819</v>
+        <v>47.87231034455273</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-3.904123635353006</v>
+        <v>-3.904123635344252</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>30.1827120483605</v>
+        <v>30.18271204840779</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>-14.03324510381366</v>
+        <v>-14.03324510371941</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>20.04839001661561</v>
+        <v>20.04839001658105</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.26955425946291</v>
+        <v>35.26955425946836</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.07771718721871</v>
+        <v>41.07771718720871</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-10.69882787184348</v>
+        <v>-10.69882787180176</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>23.38770570028283</v>
+        <v>23.38770570028215</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.30323584547058</v>
+        <v>35.30323584547422</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>41.11422914733022</v>
+        <v>41.11422914729737</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>-5.228679710454902</v>
+        <v>-5.228679710446034</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.85876426375411</v>
+        <v>28.85876426373285</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>44.08042121214955</v>
+        <v>44.08042121213317</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>49.89134771563648</v>
+        <v>49.89134771559374</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>41.75483767452319</v>
+        <v>41.75483767453092</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>47.56579920104413</v>
+        <v>47.56579920105993</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>1.221794247572699</v>
+        <v>1.221794247574518</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>35.30977032619855</v>
+        <v>35.30977032619741</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>50.53231400022607</v>
+        <v>50.5323140002637</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>56.34320871896627</v>
+        <v>56.34320871897161</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>45.40339813293168</v>
+        <v>45.40339813293998</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>51.21436571698509</v>
+        <v>51.21436571697076</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>4.870284855602346</v>
+        <v>4.870284855610191</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>38.95832476522857</v>
+        <v>38.95832476523289</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>54.18105343142612</v>
+        <v>54.18105343148785</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>59.99195420629486</v>
+        <v>59.99195420637137</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>38.60747173337076</v>
+        <v>38.60747173342271</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>44.41853337001341</v>
+        <v>44.41853337003353</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>-1.924511996765876</v>
+        <v>-1.924511996750415</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>32.16322581750991</v>
+        <v>32.16322581755936</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>47.38503442589526</v>
+        <v>47.38503442596119</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>53.19602926166853</v>
+        <v>53.19602926164215</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-12.49897100730583</v>
+        <v>-12.49897100733505</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>21.58284903395646</v>
+        <v>21.58284903392633</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.80405281346022</v>
+        <v>36.80405281350569</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>42.61178109529193</v>
+        <v>42.61178109531308</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>-9.165806152803146</v>
+        <v>-9.165806152858739</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>24.92091235850434</v>
+        <v>24.92091235849865</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-6.050084724463648</v>
+        <v>-6.050084724435568</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.03226740119954</v>
+        <v>28.0322674012673</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>43.25435779867122</v>
+        <v>43.25435779870055</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>49.06205427643489</v>
+        <v>49.0620542765629</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-2.715689756790983</v>
+        <v>-2.715689756642281</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>31.37156087420716</v>
+        <v>31.37156087429777</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-2.402380078926274</v>
+        <v>-2.402380078961063</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>31.68003589248213</v>
+        <v>31.68003589246656</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>46.9023112701267</v>
+        <v>46.90231127013955</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>52.71001380327733</v>
+        <v>52.7100138033676</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>0.9325498185551275</v>
+        <v>0.9325498186041266</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>35.01986428766999</v>
+        <v>35.01986428764793</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-9.195799343422767</v>
+        <v>-9.195799343345573</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>24.88631452987773</v>
+        <v>24.88631452993003</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>40.10766997214741</v>
+        <v>40.10766997219015</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>45.91546655996764</v>
+        <v>45.91546655998981</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>-5.862108502443096</v>
+        <v>-5.86210850242627</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.22490385377627</v>
+        <v>28.22490385381458</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>40.14071795568658</v>
+        <v>40.14071795568385</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>45.95134484634583</v>
+        <v>45.9513448463796</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-0.3920600663852731</v>
+        <v>-0.3920600663935723</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>33.69586268657373</v>
+        <v>33.69586268658965</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>48.91771076489023</v>
+        <v>48.91771076489614</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>54.72827087981342</v>
+        <v>54.72827087976977</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>46.5922531695203</v>
+        <v>46.59225316947551</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>52.40284828055486</v>
+        <v>52.40284828050609</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>6.058347277159452</v>
+        <v>6.058347277248355</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>40.14680213752366</v>
+        <v>40.14680213758551</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>55.36953693709826</v>
+        <v>55.369536937121</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>61.18006526306614</v>
+        <v>61.1800652630932</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>50.24074157213239</v>
+        <v>50.24074157212443</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>56.05134273955822</v>
+        <v>56.05134273958437</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>9.706765832692223</v>
+        <v>9.706765832731673</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>43.79528452373883</v>
+        <v>43.7952845237602</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>59.01820431323564</v>
+        <v>59.0182043132826</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>64.82873869462971</v>
+        <v>64.82873869458639</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>43.44486108964908</v>
+        <v>43.44486108967023</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>49.25555631093563</v>
+        <v>49.25555631095882</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>2.912014893711454</v>
+        <v>2.912014893741013</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>37.00023148846039</v>
+        <v>37.000231488409</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>52.22223122354593</v>
+        <v>52.22223122355457</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>58.03285966674584</v>
+        <v>58.03285966678995</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>-16.1670895559772</v>
+        <v>-16.16708955609885</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>17.91580684087127</v>
+        <v>17.91580684081783</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>33.1365209689293</v>
+        <v>33.13652096891703</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>38.94457516375054</v>
+        <v>38.94457516371564</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>-12.83405276696509</v>
+        <v>-12.83405276701057</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>21.25374227561225</v>
+        <v>21.2537422756426</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>-9.718038831024376</v>
+        <v>-9.718038830957756</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>24.36538966838181</v>
+        <v>24.36538966839022</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>39.58699042972218</v>
+        <v>39.58699042970865</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>45.39501281990069</v>
+        <v>45.39501281992888</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>-6.383771891746722</v>
+        <v>-6.383771891768323</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>27.704555287855</v>
+        <v>27.70455528791105</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-6.070233811622291</v>
+        <v>-6.070233811643892</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>28.01325853440882</v>
+        <v>28.01325853444929</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>43.23504428091032</v>
+        <v>43.23504428095318</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>49.04307272707946</v>
+        <v>49.04307272702648</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-2.735431930453945</v>
+        <v>-2.735431930482708</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>31.3529590888328</v>
+        <v>31.35295908884144</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>-12.86385967774037</v>
+        <v>-12.863859677773</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>21.21933055801766</v>
+        <v>21.21933055797127</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>36.44019635024758</v>
+        <v>36.44019635021677</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>42.24831885463654</v>
+        <v>42.248318854652</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>-9.530296897086021</v>
+        <v>-9.530296897043275</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>24.55779199707309</v>
+        <v>24.55779199714392</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>36.47305814791686</v>
+        <v>36.4730581478715</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>42.28401101875239</v>
+        <v>42.28401101874955</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>-4.06006760814363</v>
+        <v>-4.060067608165912</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>30.02893169420089</v>
+        <v>30.02893169413359</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>45.2502900979397</v>
+        <v>45.25029009791514</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>51.06117620876331</v>
+        <v>51.06117620878014</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>42.92475787354989</v>
+        <v>42.92475787348634</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>48.73567896423971</v>
+        <v>48.73567896426097</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>2.390504216350006</v>
+        <v>2.390504216325336</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>36.48003564459363</v>
+        <v>36.48003564460556</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>51.70228078481831</v>
+        <v>51.70228078477614</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>57.5131351064298</v>
+        <v>57.51313510641559</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>46.57334666861733</v>
+        <v>46.57334666860108</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>52.38427381633814</v>
+        <v>52.3842738163038</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>6.039023161568604</v>
+        <v>6.039023161589636</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>40.12861842047768</v>
+        <v>40.12861842045767</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>55.35104855623025</v>
+        <v>55.35104855625163</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>61.16190893376428</v>
+        <v>61.16190893377929</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>39.77725951008178</v>
+        <v>39.7772595100911</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>45.58828071511154</v>
+        <v>45.5882807151129</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>-0.755934420958841</v>
+        <v>-0.7559344209106378</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>33.33335872961608</v>
+        <v>33.33335872961972</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>48.55486879228307</v>
+        <v>48.55486879224215</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>54.36582323509744</v>
+        <v>54.36582323510926</v>
       </c>
     </row>
   </sheetData>
